--- a/TestData/login_Data.xlsx
+++ b/TestData/login_Data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\IdeaProjects\Traveluro\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FD279E-0525-4727-B26F-D856B2C8C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40106B5-0D1F-4320-BE13-D2D3AAC8E503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="CitBank" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -50,12 +51,43 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intial Deposit amount </t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Length(monts)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected </t>
+  </si>
+  <si>
+    <t>Compount Monthly</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compounding </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,6 +156,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -498,4 +542,150 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B3FFB1-8A5C-4326-B890-A287CE51D3DB}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="22.109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>500</v>
+      </c>
+      <c r="B2" s="6">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
+        <v>520.39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="6">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1083.1400000000001</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1500</v>
+      </c>
+      <c r="B4" s="6">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1623.65</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="6">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3244.8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>